--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value191.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value191.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163800252319682</v>
+        <v>6.175892353057861</v>
       </c>
       <c r="B1">
-        <v>1.773890828839793</v>
+        <v>4.755585670471191</v>
       </c>
       <c r="C1">
-        <v>2.9242289698844</v>
+        <v>4.897356510162354</v>
       </c>
       <c r="D1">
-        <v>2.342520597386776</v>
+        <v>4.349461555480957</v>
       </c>
       <c r="E1">
-        <v>0.6110044230398619</v>
+        <v>3.091338634490967</v>
       </c>
     </row>
   </sheetData>
